--- a/FS_thesis_BPS/Best_ind.xlsx
+++ b/FS_thesis_BPS/Best_ind.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4698422617779353</v>
+        <v>0.1512072610255116</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7823277427229059</v>
+        <v>1.163173877879964</v>
       </c>
     </row>
   </sheetData>
